--- a/scrap_2/urls.xlsx
+++ b/scrap_2/urls.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Desktop\scrap\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEB1FDD-4182-4E9E-9859-05AB812A963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="urls" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -28,6 +22,9 @@
     <t>Seguros</t>
   </si>
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -43,26 +40,29 @@
     <t>5</t>
   </si>
   <si>
-    <t>https://cotizador.123seguro.com.ar/cotizar-auto/lead/1026959/#</t>
-  </si>
-  <si>
-    <t>https://cotizador.123seguro.com.ar/cotizar-auto/lead/1026960/#</t>
-  </si>
-  <si>
-    <t>https://cotizador.123seguro.com.ar/cotizar-auto/lead/1026961/#cotizaciones/info-personal#lead</t>
-  </si>
-  <si>
-    <t>https://cotizador.123seguro.com.ar/cotizar-auto/lead/1026963/#</t>
-  </si>
-  <si>
-    <t>https://cotizador.123seguro.com.ar/cotizar-auto/lead/1027147/#</t>
+    <t>https://www.comparaencasa.com/seguros-de-auto/cotizador/?car_brand=28&amp;year=2020</t>
+  </si>
+  <si>
+    <t>https://www.comparaencasa.com/seguros-de-auto/resultados/ford-en-focus-l-16-1-6-4-p-s-capital-federal/c7a1294e28bc43ad8bfda0387f413c33/</t>
+  </si>
+  <si>
+    <t>https://www.comparaencasa.com/seguros-de-auto/resultados/toyota-en-corolla-2-0-xei-l-20-cvt-capital-federal/fa2675522f8c4017a4993887f7f7d4a1/</t>
+  </si>
+  <si>
+    <t>https://www.comparaencasa.com/seguros-de-auto/cotizador/?car_brand=153&amp;year=2019</t>
+  </si>
+  <si>
+    <t>https://www.comparaencasa.com/seguros-de-auto/cotizador/?car_brand=28&amp;year=2018</t>
+  </si>
+  <si>
+    <t>15-06-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,14 +84,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,33 +125,24 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -201,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,27 +216,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,24 +250,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,74 +425,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId3" location="cotizaciones/info-personal#lead" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>